--- a/documentation/burndown.xlsx
+++ b/documentation/burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School\Desktop\GitHub\DarkTimesMississippi\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\Desktop\DTM\repo\DarkTimesMississippi\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E40D4043-AA75-4920-9B92-F9F15E4532CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A78A9B-78C5-4CBD-B9E3-290EB968EBA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52CD8175-CCC5-4EB1-B3C8-5C956F96F136}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52CD8175-CCC5-4EB1-B3C8-5C956F96F136}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>remainder</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -119,11 +126,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Hours</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of effort vs time in weeks</a:t>
+              <a:t>Burndown</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -153,7 +156,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -166,6 +169,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>actual</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -178,6 +184,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$M$5:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$N$5:$N$9</c:f>
@@ -206,6 +242,91 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3C17-4216-9273-EBDD470C79EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>verwacht</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$M$5:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$Q$5:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>221.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>177.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.666666666666629</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.333333333333293</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.2632564145606011E-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9726-4C58-8241-5C8E4F1426BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -228,6 +349,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -262,7 +438,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="596014655"/>
@@ -293,6 +469,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Hours of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> effort left</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -321,7 +556,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="681658959"/>
@@ -362,7 +597,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1267,20 +1502,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E54DAC-D8F9-4145-852B-8A5E41DA2D9A}">
-  <dimension ref="N5:O9"/>
+  <dimension ref="M4:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="17" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="13:18" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="13:18" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>0</v>
+      </c>
       <c r="N5">
         <v>266</v>
       </c>
+      <c r="Q5">
+        <v>266</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="13:18" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>1</v>
+      </c>
       <c r="N6">
         <f>SUM(N5 - O6)</f>
         <v>214</v>
@@ -1288,8 +1546,15 @@
       <c r="O6">
         <v>52</v>
       </c>
+      <c r="Q6">
+        <f>SUM(Q5-Q5/R5)</f>
+        <v>221.66666666666666</v>
+      </c>
     </row>
-    <row r="7" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="13:18" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>2</v>
+      </c>
       <c r="N7">
         <f>SUM(N6 - O7)</f>
         <v>204</v>
@@ -1297,8 +1562,15 @@
       <c r="O7">
         <v>10</v>
       </c>
+      <c r="Q7">
+        <f>SUM(Q6-Q5/R5)</f>
+        <v>177.33333333333331</v>
+      </c>
     </row>
-    <row r="8" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="13:18" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>3</v>
+      </c>
       <c r="N8">
         <f>SUM(N7 - O8)</f>
         <v>129</v>
@@ -1306,14 +1578,43 @@
       <c r="O8">
         <v>75</v>
       </c>
+      <c r="Q8">
+        <f>SUM(Q7-Q5/R5)</f>
+        <v>132.99999999999997</v>
+      </c>
     </row>
-    <row r="9" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="13:18" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>4</v>
+      </c>
       <c r="N9">
         <f>SUM(N8 - O9)</f>
         <v>114</v>
       </c>
       <c r="O9">
         <v>15</v>
+      </c>
+      <c r="Q9">
+        <f>SUM(Q8-Q5/R5)</f>
+        <v>88.666666666666629</v>
+      </c>
+    </row>
+    <row r="10" spans="13:18" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <f>SUM(Q9-Q5/R5)</f>
+        <v>44.333333333333293</v>
+      </c>
+    </row>
+    <row r="11" spans="13:18" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <f>SUM(Q10-Q5/R5)</f>
+        <v>-4.2632564145606011E-14</v>
       </c>
     </row>
   </sheetData>
